--- a/esp_montok_run/timing_token.xlsx
+++ b/esp_montok_run/timing_token.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PlatformIO\Projects\esp_montok_run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD78EC07-8F83-476C-BDBB-ECE77675EC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8C79D-76F1-4E55-90A2-D2F91FD170C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="660" windowWidth="15375" windowHeight="9480" xr2:uid="{840A9E80-5291-4B4D-B01B-082AA0C4EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{840A9E80-5291-4B4D-B01B-082AA0C4EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="BENAR" sheetId="1" r:id="rId1"/>
     <sheet name="GAGAL" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="FIX" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>MEREK</t>
   </si>
@@ -119,6 +120,36 @@
   </si>
   <si>
     <t>ENTER KE BENAR</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>benar</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>kelamaan(ganti nominal lebih cepat),1500(gagal),1400(gagal),1200</t>
+  </si>
+  <si>
+    <t>malam</t>
+  </si>
+  <si>
+    <t>saldo(led cepat mati)</t>
   </si>
 </sst>
 </file>
@@ -134,12 +165,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +199,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B530EA2-AF8E-42F7-9447-96186792CD51}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,36 +552,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,7 +700,7 @@
         <v>8920</v>
       </c>
       <c r="H8">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,36 +755,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
@@ -830,6 +880,307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54E1B90-F990-454E-BDC1-603E73D363C5}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="65.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>4720</v>
+      </c>
+      <c r="F4">
+        <f>E4+D4</f>
+        <v>4720</v>
+      </c>
+      <c r="G4">
+        <v>9920</v>
+      </c>
+      <c r="H4">
+        <v>115</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2720</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F11" si="0">E5+D5</f>
+        <v>3720</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1680</v>
+      </c>
+      <c r="H5" s="7">
+        <v>182</v>
+      </c>
+      <c r="I5" s="7">
+        <v>186</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>1720</v>
+      </c>
+      <c r="H6">
+        <v>182</v>
+      </c>
+      <c r="I6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>800</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G7">
+        <v>1920</v>
+      </c>
+      <c r="I7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="G8">
+        <v>1160</v>
+      </c>
+      <c r="I8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>4240</v>
+      </c>
+      <c r="E9">
+        <v>4560</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+      <c r="G9">
+        <v>8920</v>
+      </c>
+      <c r="I9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1080</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="G11">
+        <v>1840</v>
+      </c>
+      <c r="H11">
+        <v>182</v>
+      </c>
+      <c r="I11">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAF09AC-8595-4E5E-BF3B-E50B0B01877D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -973,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6557627-E6A3-46DF-93E6-76A5CB4BE560}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1008,12 +1359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7640BA-22E3-4D99-BF66-2061B0B388A8}">
-  <dimension ref="B1:L4"/>
+  <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1457,39 @@
         <v>-629354</v>
       </c>
     </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>58924</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>59530</v>
+      </c>
+      <c r="F9">
+        <f>E9-E8</f>
+        <v>606</v>
+      </c>
+      <c r="H9">
+        <v>218836</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>61125</v>
+      </c>
+      <c r="F10">
+        <f>E10-E9</f>
+        <v>1595</v>
+      </c>
+      <c r="H10">
+        <v>220329</v>
+      </c>
+      <c r="I10">
+        <f>H10-H9</f>
+        <v>1493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
